--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T15:17:50+00:00</t>
+    <t>2025-09-26T08:52:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="827">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:52:04+00:00</t>
+    <t>2025-09-26T11:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -872,6 +872,9 @@
     <t>Pièces jointes liées à l’événement.</t>
   </si>
   <si>
+    <t>Pièces jointes.</t>
+  </si>
+  <si>
     <t>pieceJointeEvenement</t>
   </si>
   <si>
@@ -1184,20 +1187,20 @@
     <t>Encounter.status.extension</t>
   </si>
   <si>
-    <t>Encounter.status.extension:tddui-event-cancel-reason</t>
-  </si>
-  <si>
-    <t>tddui-event-cancel-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason}
+    <t>Encounter.status.extension:TDDUICancelReason</t>
+  </si>
+  <si>
+    <t>TDDUICancelReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-cancel-reason}
 </t>
   </si>
   <si>
-    <t>Évènement annulé</t>
-  </si>
-  <si>
-    <t>Motif associé au statut de non-réalisation de l’évènement.</t>
+    <t>Motif de non-réalisation de l’évènement et de l'évaluation</t>
+  </si>
+  <si>
+    <t>Motif associé au statut de non-réalisation de l’évènement et de l'évaluation.</t>
   </si>
   <si>
     <t>statut.motifNonRealisation</t>
@@ -7724,7 +7727,7 @@
         <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7790,7 +7793,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7807,13 +7810,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7835,13 +7838,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7907,7 +7910,7 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7924,13 +7927,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7952,13 +7955,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8024,7 +8027,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -8041,13 +8044,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8069,13 +8072,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8141,7 +8144,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -8158,13 +8161,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
@@ -8186,13 +8189,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8258,7 +8261,7 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -8275,10 +8278,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8304,16 +8307,16 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8362,7 +8365,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8397,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8420,13 +8423,13 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8477,7 +8480,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8492,27 +8495,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8624,10 +8627,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8741,10 +8744,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8770,16 +8773,16 @@
         <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8807,10 +8810,10 @@
         <v>229</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8828,7 +8831,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8849,7 +8852,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8860,10 +8863,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8889,16 +8892,16 @@
         <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8927,7 +8930,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8945,7 +8948,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8966,21 +8969,21 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9006,16 +9009,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9028,7 +9031,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9064,7 +9067,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9085,21 +9088,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9125,13 +9128,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9145,7 +9148,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9181,7 +9184,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9202,21 +9205,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9239,13 +9242,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9296,7 +9299,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9317,21 +9320,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9354,16 +9357,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9413,7 +9416,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9434,21 +9437,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9474,13 +9477,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9509,10 +9512,10 @@
         <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9530,7 +9533,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9545,27 +9548,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9591,10 +9594,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9677,10 +9680,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9790,13 +9793,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9818,13 +9821,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9890,7 +9893,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9907,10 +9910,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9936,10 +9939,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9990,7 +9993,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10022,10 +10025,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10048,16 +10051,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10107,7 +10110,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10139,10 +10142,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10254,10 +10257,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10371,14 +10374,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10400,16 +10403,16 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10458,7 +10461,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10490,10 +10493,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10519,10 +10522,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10552,10 +10555,10 @@
         <v>229</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10573,7 +10576,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10605,10 +10608,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10631,13 +10634,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10688,7 +10691,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10720,10 +10723,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10749,10 +10752,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10782,10 +10785,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10803,7 +10806,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10824,21 +10827,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10950,10 +10953,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11067,10 +11070,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11096,16 +11099,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11154,7 +11157,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11175,21 +11178,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11215,13 +11218,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11271,7 +11274,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11292,21 +11295,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11332,14 +11335,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11388,7 +11391,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11409,21 +11412,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11449,14 +11452,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11505,7 +11508,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11526,21 +11529,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11563,19 +11566,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11624,7 +11627,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11645,21 +11648,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11682,13 +11685,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11739,7 +11742,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11771,10 +11774,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11886,10 +11889,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12003,14 +12006,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12032,16 +12035,16 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12090,7 +12093,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12122,10 +12125,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12151,10 +12154,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12184,10 +12187,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12205,7 +12208,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12237,10 +12240,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12263,13 +12266,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12320,7 +12323,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12381,13 +12384,13 @@
         <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12417,13 +12420,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12433,7 +12436,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12448,30 +12451,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12496,13 +12499,13 @@
         <v>226</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12531,10 +12534,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12552,7 +12555,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12570,24 +12573,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12699,10 +12702,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12816,10 +12819,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12845,16 +12848,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12903,7 +12906,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12924,21 +12927,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13050,10 +13053,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13167,10 +13170,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13196,16 +13199,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13215,7 +13218,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13254,7 +13257,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13275,21 +13278,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13315,13 +13318,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13371,7 +13374,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13392,21 +13395,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13432,14 +13435,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13468,7 +13471,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13486,7 +13489,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13507,21 +13510,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13547,14 +13550,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13603,7 +13606,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13624,21 +13627,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13661,19 +13664,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13722,7 +13725,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13743,21 +13746,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13783,16 +13786,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13841,7 +13844,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13862,24 +13865,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13904,13 +13907,13 @@
         <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13939,10 +13942,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13960,7 +13963,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13978,24 +13981,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14107,10 +14110,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14224,10 +14227,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14253,16 +14256,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14311,7 +14314,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14332,21 +14335,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14458,10 +14461,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14575,10 +14578,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14604,16 +14607,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14623,7 +14626,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14662,7 +14665,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14683,21 +14686,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14723,13 +14726,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14779,7 +14782,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14800,21 +14803,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14840,14 +14843,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14876,7 +14879,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14894,7 +14897,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14915,21 +14918,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14955,14 +14958,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15011,7 +15014,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15032,21 +15035,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15069,19 +15072,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15130,7 +15133,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15151,21 +15154,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15191,16 +15194,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15249,7 +15252,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15270,24 +15273,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15312,13 +15315,13 @@
         <v>226</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15347,10 +15350,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15368,7 +15371,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15386,24 +15389,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15515,10 +15518,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15632,10 +15635,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15661,16 +15664,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15719,7 +15722,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15740,21 +15743,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15866,10 +15869,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15983,10 +15986,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16012,16 +16015,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16031,7 +16034,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16070,7 +16073,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16091,21 +16094,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16131,13 +16134,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16187,7 +16190,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16208,21 +16211,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16248,14 +16251,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16265,7 +16268,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16304,7 +16307,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16325,21 +16328,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16365,14 +16368,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16382,7 +16385,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16421,7 +16424,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16442,21 +16445,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16479,19 +16482,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16540,7 +16543,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16561,21 +16564,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16601,16 +16604,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16659,7 +16662,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16680,21 +16683,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16720,10 +16723,10 @@
         <v>226</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16753,10 +16756,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16774,7 +16777,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16792,7 +16795,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16801,15 +16804,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16835,10 +16838,10 @@
         <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16868,10 +16871,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16892,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16910,25 +16913,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16947,16 +16950,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17006,7 +17009,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17021,27 +17024,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17064,13 +17067,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17121,7 +17124,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17139,28 +17142,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17179,13 +17182,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17236,7 +17239,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17254,10 +17257,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17268,10 +17271,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17294,13 +17297,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17351,7 +17354,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17369,24 +17372,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17498,10 +17501,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17615,14 +17618,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17644,16 +17647,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17702,7 +17705,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17734,10 +17737,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17763,13 +17766,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17798,10 +17801,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17819,7 +17822,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17834,27 +17837,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17877,13 +17880,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17934,7 +17937,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17955,21 +17958,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17992,13 +17995,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18049,7 +18052,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18064,27 +18067,27 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18107,13 +18110,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18164,7 +18167,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18182,24 +18185,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18222,16 +18225,16 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18281,7 +18284,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18299,24 +18302,24 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18428,10 +18431,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18545,10 +18548,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18571,16 +18574,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18630,7 +18633,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18639,33 +18642,33 @@
         <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18688,23 +18691,23 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>82</v>
@@ -18749,7 +18752,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18758,33 +18761,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18807,16 +18810,16 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18866,7 +18869,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18884,28 +18887,28 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18927,13 +18930,13 @@
         <v>226</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18962,10 +18965,10 @@
         <v>172</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18983,7 +18986,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19001,28 +19004,28 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19041,16 +19044,16 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19100,7 +19103,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19118,24 +19121,24 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19158,13 +19161,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19215,7 +19218,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19236,7 +19239,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19247,10 +19250,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19362,10 +19365,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19479,14 +19482,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19508,16 +19511,16 @@
         <v>112</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19566,7 +19569,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19598,14 +19601,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19624,16 +19627,16 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19683,7 +19686,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19701,24 +19704,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19744,10 +19747,10 @@
         <v>226</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19777,10 +19780,10 @@
         <v>172</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19798,7 +19801,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19830,10 +19833,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19856,13 +19859,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19913,7 +19916,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19934,7 +19937,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19945,10 +19948,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19971,16 +19974,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20030,7 +20033,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20051,7 +20054,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20062,10 +20065,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20088,16 +20091,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20147,7 +20150,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20168,7 +20171,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20179,10 +20182,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20294,10 +20297,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20411,14 +20414,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20440,16 +20443,16 @@
         <v>112</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20498,7 +20501,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20530,10 +20533,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20556,13 +20559,13 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20613,7 +20616,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20634,21 +20637,21 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20760,10 +20763,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20877,10 +20880,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20906,16 +20909,16 @@
         <v>168</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -20943,10 +20946,10 @@
         <v>229</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -20964,7 +20967,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20985,7 +20988,7 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20996,10 +20999,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21025,16 +21028,16 @@
         <v>226</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21063,7 +21066,7 @@
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21081,7 +21084,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21102,21 +21105,21 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21142,29 +21145,29 @@
         <v>134</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21200,7 +21203,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21221,21 +21224,21 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21261,13 +21264,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21281,7 +21284,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21317,7 +21320,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21338,21 +21341,21 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21375,13 +21378,13 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21432,7 +21435,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21453,21 +21456,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21490,16 +21493,16 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21549,7 +21552,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21570,21 +21573,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21607,13 +21610,13 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21664,7 +21667,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21685,7 +21688,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21696,10 +21699,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21725,10 +21728,10 @@
         <v>226</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21758,10 +21761,10 @@
         <v>172</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21779,7 +21782,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21800,21 +21803,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21840,10 +21843,10 @@
         <v>226</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21873,10 +21876,10 @@
         <v>158</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21894,7 +21897,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21921,15 +21924,15 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21955,16 +21958,16 @@
         <v>226</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -21992,10 +21995,10 @@
         <v>158</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22013,7 +22016,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22034,21 +22037,21 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22074,10 +22077,10 @@
         <v>226</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22107,10 +22110,10 @@
         <v>172</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22128,7 +22131,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22149,21 +22152,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22189,10 +22192,10 @@
         <v>226</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22222,10 +22225,10 @@
         <v>172</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22243,7 +22246,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22264,21 +22267,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22301,13 +22304,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22358,7 +22361,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22379,21 +22382,21 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22419,10 +22422,10 @@
         <v>226</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22453,7 +22456,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -22471,7 +22474,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22492,21 +22495,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22529,16 +22532,16 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22588,7 +22591,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22603,13 +22606,13 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22620,10 +22623,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22735,10 +22738,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22852,14 +22855,14 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -22881,16 +22884,16 @@
         <v>112</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -22939,7 +22942,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22971,10 +22974,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22997,13 +23000,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23054,7 +23057,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23072,24 +23075,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23115,13 +23118,13 @@
         <v>168</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23150,10 +23153,10 @@
         <v>229</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23171,7 +23174,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23192,7 +23195,7 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -23203,10 +23206,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23232,13 +23235,13 @@
         <v>226</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23268,7 +23271,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23286,7 +23289,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23318,10 +23321,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23344,13 +23347,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23401,7 +23404,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23422,7 +23425,7 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23433,10 +23436,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23459,13 +23462,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23516,7 +23519,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23531,27 +23534,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23574,16 +23577,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23633,7 +23636,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23648,13 +23651,13 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T11:13:08+00:00</t>
+    <t>2025-09-26T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T13:47:48+00:00</t>
+    <t>2025-09-29T08:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:20:50+00:00</t>
+    <t>2025-09-29T14:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:52:40+00:00</t>
+    <t>2025-09-29T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T15:54:50+00:00</t>
+    <t>2025-10-01T07:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:41:07+00:00</t>
+    <t>2025-10-01T07:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:57:22+00:00</t>
+    <t>2025-10-01T09:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T09:25:52+00:00</t>
+    <t>2025-10-01T13:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:14:57+00:00</t>
+    <t>2025-10-01T16:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:07:51+00:00</t>
+    <t>2025-10-03T13:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1187,20 +1187,20 @@
     <t>Encounter.status.extension</t>
   </si>
   <si>
-    <t>Encounter.status.extension:TDDUICancelReason</t>
-  </si>
-  <si>
-    <t>TDDUICancelReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-cancel-reason}
+    <t>Encounter.status.extension:TDDUIEventCancelReason</t>
+  </si>
+  <si>
+    <t>TDDUIEventCancelReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason}
 </t>
   </si>
   <si>
-    <t>Motif de non-réalisation de l’évènement et de l'évaluation</t>
-  </si>
-  <si>
-    <t>Motif associé au statut de non-réalisation de l’évènement et de l'évaluation.</t>
+    <t>Évènement annulé</t>
+  </si>
+  <si>
+    <t>Motif associé au statut de non-réalisation de l’évènement.</t>
   </si>
   <si>
     <t>statut.motifNonRealisation</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T13:32:59+00:00</t>
+    <t>2025-10-03T14:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T14:19:43+00:00</t>
+    <t>2025-10-06T09:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -837,7 +837,7 @@
     <t>Commentaires sur le déroulé de l'évènement.</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour et aux évènements.</t>
+    <t>Commentaire relatif au séjour, évènements et évaluations.</t>
   </si>
   <si>
     <t>commentaireEvenement</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T09:55:58+00:00</t>
+    <t>2025-10-06T14:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:50:01+00:00</t>
+    <t>2025-10-07T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:55:00+00:00</t>
+    <t>2025-10-07T14:18:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:18:23+00:00</t>
+    <t>2025-10-07T16:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:19:46+00:00</t>
+    <t>2025-10-08T12:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:42:57+00:00</t>
+    <t>2025-10-08T15:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="828">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T15:14:16+00:00</t>
+    <t>2025-10-13T13:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,6 +657,9 @@
     <t>Ressources utilisées lors de l’évènement.</t>
   </si>
   <si>
+    <t>Ressources utilisées lors de l’évènement (ex : Batiment, matériel médical, véhicule).</t>
+  </si>
+  <si>
     <t>RessourceUtilisee</t>
   </si>
   <si>
@@ -965,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known | identifiant de la rencontre</t>
+    <t>Identifiant de l'évènement</t>
   </si>
   <si>
     <t>Identifier(s) by which this encounter is known.Cet élément est multiévalué (pour ne pas bloquer les implémentations, car il arrive sur le terrain qu'il y ait plusieurs id pour une même admission, mais cette situation est considérée comme une anomalie)</t>
@@ -5064,7 +5067,7 @@
         <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5130,7 +5133,7 @@
         <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
@@ -5147,10 +5150,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5262,10 +5265,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5379,13 +5382,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
@@ -5479,7 +5482,7 @@
         <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5611,10 +5614,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5726,10 +5729,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5755,13 +5758,13 @@
         <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5769,7 +5772,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>82</v>
@@ -5811,7 +5814,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>91</v>
@@ -5843,10 +5846,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5869,13 +5872,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5902,11 +5905,11 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5924,7 +5927,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5956,13 +5959,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
@@ -6053,10 +6056,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -6073,10 +6076,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6188,10 +6191,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6303,10 +6306,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6332,13 +6335,13 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6346,7 +6349,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -6388,7 +6391,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>91</v>
@@ -6420,10 +6423,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6446,13 +6449,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6479,11 +6482,11 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -6501,7 +6504,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6533,13 +6536,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>82</v>
@@ -6630,10 +6633,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6650,10 +6653,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6765,10 +6768,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6880,10 +6883,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6909,13 +6912,13 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6923,7 +6926,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
@@ -6965,7 +6968,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
@@ -6997,10 +7000,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7023,13 +7026,13 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -7056,11 +7059,11 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -7078,7 +7081,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -7110,10 +7113,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7139,13 +7142,13 @@
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7153,7 +7156,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -7195,7 +7198,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
@@ -7227,10 +7230,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7253,13 +7256,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7310,7 +7313,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7342,13 +7345,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -7370,13 +7373,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7442,7 +7445,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7459,13 +7462,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7487,13 +7490,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7559,7 +7562,7 @@
         <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7576,13 +7579,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
@@ -7604,13 +7607,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7676,7 +7679,7 @@
         <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7693,13 +7696,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
@@ -7721,13 +7724,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7793,7 +7796,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7810,13 +7813,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7838,13 +7841,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7910,7 +7913,7 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7927,13 +7930,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7955,13 +7958,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8027,7 +8030,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -8044,13 +8047,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8072,13 +8075,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8144,7 +8147,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -8161,13 +8164,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
@@ -8189,13 +8192,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8261,7 +8264,7 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -8278,10 +8281,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8307,16 +8310,16 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8365,7 +8368,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8397,10 +8400,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8423,13 +8426,13 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8480,7 +8483,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8495,27 +8498,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8627,10 +8630,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8744,10 +8747,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8773,16 +8776,16 @@
         <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8807,13 +8810,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8831,7 +8834,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8852,7 +8855,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8863,10 +8866,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8889,19 +8892,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8930,7 +8933,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8948,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8969,21 +8972,21 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9009,16 +9012,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9031,7 +9034,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9067,7 +9070,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9088,21 +9091,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9128,13 +9131,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9148,7 +9151,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9184,7 +9187,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9205,21 +9208,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9242,13 +9245,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9299,7 +9302,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9320,21 +9323,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9357,16 +9360,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9416,7 +9419,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9437,21 +9440,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9477,13 +9480,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9509,13 +9512,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9533,7 +9536,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9548,27 +9551,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9594,10 +9597,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9680,10 +9683,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9793,13 +9796,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9821,13 +9824,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9893,7 +9896,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9910,10 +9913,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9939,10 +9942,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9993,7 +9996,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10025,10 +10028,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10051,16 +10054,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10110,7 +10113,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10142,10 +10145,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10257,10 +10260,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10374,14 +10377,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10403,16 +10406,16 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10461,7 +10464,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10493,10 +10496,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10522,10 +10525,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10552,13 +10555,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10576,7 +10579,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10608,10 +10611,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10634,13 +10637,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10691,7 +10694,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10723,10 +10726,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10752,10 +10755,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10785,10 +10788,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10806,7 +10809,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10827,21 +10830,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10953,10 +10956,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11070,10 +11073,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11099,16 +11102,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11157,7 +11160,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11178,21 +11181,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11218,13 +11221,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11274,7 +11277,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11295,21 +11298,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11335,14 +11338,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11391,7 +11394,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11412,21 +11415,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11452,14 +11455,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11508,7 +11511,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11529,21 +11532,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11566,19 +11569,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11627,7 +11630,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11648,21 +11651,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11685,13 +11688,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11742,7 +11745,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11774,10 +11777,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11889,10 +11892,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12006,14 +12009,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12035,16 +12038,16 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12093,7 +12096,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12125,10 +12128,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12154,10 +12157,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12187,10 +12190,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12208,7 +12211,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12240,10 +12243,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12266,13 +12269,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12323,7 +12326,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12355,10 +12358,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12381,16 +12384,16 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12420,13 +12423,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12436,7 +12439,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12451,30 +12454,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12496,16 +12499,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12534,10 +12537,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12555,7 +12558,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12573,24 +12576,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12702,10 +12705,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12819,10 +12822,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12848,16 +12851,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12906,7 +12909,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12927,21 +12930,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13053,10 +13056,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13170,10 +13173,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13199,16 +13202,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13218,7 +13221,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13257,7 +13260,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13278,21 +13281,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13318,13 +13321,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13374,7 +13377,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13395,21 +13398,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13435,14 +13438,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13467,11 +13470,11 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13489,7 +13492,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13510,21 +13513,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13550,14 +13553,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13606,7 +13609,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13627,21 +13630,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13664,19 +13667,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13725,7 +13728,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13746,21 +13749,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13786,16 +13789,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13844,7 +13847,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13865,24 +13868,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13904,16 +13907,16 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13942,10 +13945,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13963,7 +13966,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13981,24 +13984,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14110,10 +14113,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14227,10 +14230,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14256,16 +14259,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14314,7 +14317,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14335,21 +14338,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14461,10 +14464,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14578,10 +14581,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14607,16 +14610,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14626,7 +14629,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14665,7 +14668,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14686,21 +14689,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14726,13 +14729,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14782,7 +14785,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14803,21 +14806,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14843,14 +14846,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14875,11 +14878,11 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14897,7 +14900,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14918,21 +14921,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14958,14 +14961,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15014,7 +15017,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15035,21 +15038,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15072,19 +15075,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15133,7 +15136,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15154,21 +15157,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15194,16 +15197,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15252,7 +15255,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15273,24 +15276,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15312,16 +15315,16 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15350,10 +15353,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15371,7 +15374,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15389,24 +15392,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15518,10 +15521,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15635,10 +15638,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15664,16 +15667,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15722,7 +15725,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15743,21 +15746,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15869,10 +15872,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15986,10 +15989,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16015,16 +16018,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16034,7 +16037,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16073,7 +16076,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16094,21 +16097,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16134,13 +16137,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16190,7 +16193,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16211,21 +16214,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16251,14 +16254,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16268,7 +16271,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16307,7 +16310,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16328,21 +16331,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16368,14 +16371,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16385,7 +16388,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16424,7 +16427,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16445,21 +16448,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16482,19 +16485,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16543,7 +16546,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16564,21 +16567,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16604,16 +16607,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16662,7 +16665,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16683,21 +16686,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16720,13 +16723,13 @@
         <v>92</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16756,10 +16759,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16777,7 +16780,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16795,7 +16798,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16804,15 +16807,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16835,13 +16838,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16871,10 +16874,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16892,7 +16895,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16913,25 +16916,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16950,16 +16953,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17009,7 +17012,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17024,27 +17027,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17067,13 +17070,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17124,7 +17127,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17142,28 +17145,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17182,13 +17185,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17239,7 +17242,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17257,10 +17260,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17271,10 +17274,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17297,13 +17300,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17354,7 +17357,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17372,24 +17375,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17501,10 +17504,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17618,14 +17621,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17647,16 +17650,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17705,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17737,10 +17740,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17763,16 +17766,16 @@
         <v>92</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17801,10 +17804,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17822,7 +17825,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17837,27 +17840,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17880,13 +17883,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17937,7 +17940,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17958,21 +17961,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17995,13 +17998,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18052,7 +18055,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18067,27 +18070,27 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18110,13 +18113,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18167,7 +18170,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18185,24 +18188,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18225,16 +18228,16 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18284,7 +18287,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18302,24 +18305,24 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18431,10 +18434,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18548,10 +18551,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18574,16 +18577,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18633,7 +18636,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18642,33 +18645,33 @@
         <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18691,23 +18694,23 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>82</v>
@@ -18752,7 +18755,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18761,33 +18764,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18810,16 +18813,16 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18869,7 +18872,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18887,28 +18890,28 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18927,16 +18930,16 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18965,10 +18968,10 @@
         <v>172</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18986,7 +18989,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19004,28 +19007,28 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19044,16 +19047,16 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19103,7 +19106,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19121,24 +19124,24 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19161,13 +19164,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19218,7 +19221,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19239,7 +19242,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19250,10 +19253,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19365,10 +19368,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19482,14 +19485,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19511,16 +19514,16 @@
         <v>112</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19569,7 +19572,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19601,14 +19604,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19627,16 +19630,16 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19686,7 +19689,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19704,24 +19707,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19744,13 +19747,13 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19780,10 +19783,10 @@
         <v>172</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19801,7 +19804,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19833,10 +19836,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19859,13 +19862,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19916,7 +19919,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19937,7 +19940,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19948,10 +19951,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19974,16 +19977,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20033,7 +20036,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20054,7 +20057,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20065,10 +20068,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20091,16 +20094,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20150,7 +20153,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20171,7 +20174,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20182,10 +20185,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20297,10 +20300,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20414,14 +20417,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20443,16 +20446,16 @@
         <v>112</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20501,7 +20504,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20533,10 +20536,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20559,13 +20562,13 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20616,7 +20619,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20637,21 +20640,21 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20763,10 +20766,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20880,10 +20883,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20909,16 +20912,16 @@
         <v>168</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -20943,13 +20946,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -20967,7 +20970,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20988,7 +20991,7 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20999,10 +21002,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21025,19 +21028,19 @@
         <v>92</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21066,7 +21069,7 @@
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21084,7 +21087,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21105,21 +21108,21 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21145,29 +21148,29 @@
         <v>134</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21203,7 +21206,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21224,21 +21227,21 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21264,13 +21267,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21284,7 +21287,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21320,7 +21323,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21341,21 +21344,21 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21378,13 +21381,13 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21435,7 +21438,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21456,21 +21459,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21493,16 +21496,16 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21552,7 +21555,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21573,21 +21576,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21610,13 +21613,13 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21667,7 +21670,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21688,7 +21691,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21699,10 +21702,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21725,13 +21728,13 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21761,10 +21764,10 @@
         <v>172</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21782,7 +21785,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21803,21 +21806,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21840,13 +21843,13 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21876,10 +21879,10 @@
         <v>158</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21897,7 +21900,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21924,15 +21927,15 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21955,19 +21958,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -21995,10 +21998,10 @@
         <v>158</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22016,7 +22019,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22037,21 +22040,21 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22074,13 +22077,13 @@
         <v>82</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22110,10 +22113,10 @@
         <v>172</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22131,7 +22134,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22152,21 +22155,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22189,13 +22192,13 @@
         <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22225,10 +22228,10 @@
         <v>172</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22246,7 +22249,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22267,21 +22270,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22304,13 +22307,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22361,7 +22364,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22382,21 +22385,21 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22419,13 +22422,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22456,7 +22459,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -22474,7 +22477,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22495,21 +22498,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22532,16 +22535,16 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22591,7 +22594,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22606,13 +22609,13 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22623,10 +22626,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22738,10 +22741,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22855,14 +22858,14 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -22884,16 +22887,16 @@
         <v>112</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -22942,7 +22945,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22974,10 +22977,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23000,13 +23003,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23057,7 +23060,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23075,24 +23078,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23118,13 +23121,13 @@
         <v>168</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23150,13 +23153,13 @@
         <v>82</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23174,7 +23177,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23195,7 +23198,7 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -23206,10 +23209,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23232,16 +23235,16 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23271,7 +23274,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23289,7 +23292,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23321,10 +23324,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23347,13 +23350,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23404,7 +23407,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23425,7 +23428,7 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23436,10 +23439,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23462,13 +23465,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23519,7 +23522,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23534,27 +23537,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23577,16 +23580,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23636,7 +23639,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23651,13 +23654,13 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:31:44+00:00</t>
+    <t>2025-10-15T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,7 +657,7 @@
     <t>Ressources utilisées lors de l’évènement.</t>
   </si>
   <si>
-    <t>Ressources utilisées lors de l’évènement (ex : Batiment, matériel médical, véhicule).</t>
+    <t>Ressources utilisées lors de l’évènement (ex : chambre, matériel médical, véhicule).</t>
   </si>
   <si>
     <t>RessourceUtilisee</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:45:31+00:00</t>
+    <t>2025-10-15T11:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:51:21+00:00</t>
+    <t>2025-10-15T15:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
